--- a/data/trans_orig/P34A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3535</v>
+        <v>3493</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13867</v>
+        <v>13951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007187217734220837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003483303822790101</v>
+        <v>0.0034419394204146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01366403667772245</v>
+        <v>0.01374647800389426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9416</v>
+        <v>9069</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002865935372286718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0007252427834353382</v>
+        <v>0.0007263835449768467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.007281528839058035</v>
+        <v>0.007013150890744401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>11000</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5474</v>
+        <v>5617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18760</v>
+        <v>18484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004766096853691483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002371762892360914</v>
+        <v>0.002433808755662726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008128012439359159</v>
+        <v>0.008008734486038564</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>48345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35081</v>
+        <v>35830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61386</v>
+        <v>62012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04763616635258297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03456689480943741</v>
+        <v>0.03530443475209671</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06048615801736174</v>
+        <v>0.06110283224014267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -836,19 +836,19 @@
         <v>34856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24878</v>
+        <v>25315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48191</v>
+        <v>48617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02695467187261139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01923871405870143</v>
+        <v>0.01957654159406461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03726681120403229</v>
+        <v>0.03759678613997487</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -857,19 +857,19 @@
         <v>83201</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66702</v>
+        <v>66805</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101903</v>
+        <v>101380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03604877309008846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02890039307271038</v>
+        <v>0.02894486190418001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04415196407023658</v>
+        <v>0.04392521442222342</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>455769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>424524</v>
+        <v>424729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>487796</v>
+        <v>486155</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4490862266791715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4182996569419741</v>
+        <v>0.4185014940750121</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4806431175374972</v>
+        <v>0.4790263215685195</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>579</v>
@@ -907,19 +907,19 @@
         <v>582026</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>544264</v>
+        <v>549041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>618055</v>
+        <v>622386</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4500921751132769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4208900623578453</v>
+        <v>0.4245839208154352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4779537852009257</v>
+        <v>0.4813029829146596</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1042</v>
@@ -928,19 +928,19 @@
         <v>1037795</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>986042</v>
+        <v>980335</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1083490</v>
+        <v>1081302</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4496498377914661</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4272262225491187</v>
+        <v>0.4247535644515146</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4694481069887693</v>
+        <v>0.468500271249374</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>503473</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>471103</v>
+        <v>473293</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>534733</v>
+        <v>535113</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4960903892340247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4641956861413289</v>
+        <v>0.4663534738842269</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5268922296061569</v>
+        <v>0.5272671369599842</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>652</v>
@@ -978,19 +978,19 @@
         <v>672539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>634092</v>
+        <v>634187</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>709248</v>
+        <v>706501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.520087217641825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4903552800187965</v>
+        <v>0.4904289267576456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5484749694941778</v>
+        <v>0.5463508018030028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1153</v>
@@ -999,19 +999,19 @@
         <v>1176012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1128062</v>
+        <v>1133384</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1227946</v>
+        <v>1235695</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.509535292264754</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4887599422823967</v>
+        <v>0.4910658346097388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5320372489515647</v>
+        <v>0.535394781342505</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>90453</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72253</v>
+        <v>73755</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111250</v>
+        <v>108813</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0541676530596775</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04326883998244572</v>
+        <v>0.04416823383687772</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06662248582933444</v>
+        <v>0.06516264231217765</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -1124,19 +1124,19 @@
         <v>34987</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25412</v>
+        <v>24593</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48299</v>
+        <v>48988</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02243158569938791</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0162928060497093</v>
+        <v>0.01576762399643107</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03096639660270839</v>
+        <v>0.03140824368422315</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>127</v>
@@ -1145,19 +1145,19 @@
         <v>125440</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>103802</v>
+        <v>105389</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>148501</v>
+        <v>149450</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03884079635327451</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03214107670806868</v>
+        <v>0.03263224991439228</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04598132625922081</v>
+        <v>0.04627534281276926</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>242644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>215719</v>
+        <v>211793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272734</v>
+        <v>272099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1453077564791795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1291836431686739</v>
+        <v>0.1268325268579394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1633269441186177</v>
+        <v>0.1629467166228442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -1195,19 +1195,19 @@
         <v>110817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91788</v>
+        <v>91441</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130553</v>
+        <v>130985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07104943199558356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05884889941069886</v>
+        <v>0.05862656061584882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08370286215751503</v>
+        <v>0.08397975939946339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>346</v>
@@ -1216,19 +1216,19 @@
         <v>353461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>319525</v>
+        <v>317933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>392594</v>
+        <v>392723</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1094448788990235</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09893681274347642</v>
+        <v>0.09844402980821548</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1215617435920426</v>
+        <v>0.1216017018713628</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>660155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>622079</v>
+        <v>621306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>702196</v>
+        <v>699836</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3953346876318616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3725329136501536</v>
+        <v>0.3720696278154805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4205105953078695</v>
+        <v>0.4190974512164859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>727</v>
@@ -1266,19 +1266,19 @@
         <v>736560</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>697452</v>
+        <v>694342</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>777109</v>
+        <v>779576</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4722390543777098</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4471654182272494</v>
+        <v>0.4451713165946427</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4982365955903924</v>
+        <v>0.4998182999095619</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1376</v>
@@ -1287,19 +1287,19 @@
         <v>1396715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1343054</v>
+        <v>1339306</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1453342</v>
+        <v>1455668</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4324754649004766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.415859831913175</v>
+        <v>0.4146994480649386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.450009211040455</v>
+        <v>0.4507295280920642</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>676612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>638208</v>
+        <v>634566</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>713002</v>
+        <v>717223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4051899028292814</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.382191661059268</v>
+        <v>0.3800103817606039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4269820231911098</v>
+        <v>0.4295098060597684</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>650</v>
@@ -1337,19 +1337,19 @@
         <v>677355</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>639136</v>
+        <v>633719</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>719547</v>
+        <v>714607</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4342799279273187</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4097766706189641</v>
+        <v>0.4063030736009506</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.461331172397709</v>
+        <v>0.4581641561694036</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1305</v>
@@ -1358,19 +1358,19 @@
         <v>1353967</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1293365</v>
+        <v>1297317</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1405656</v>
+        <v>1407006</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4192388598472254</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4004742821060112</v>
+        <v>0.401698138718201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4352438759312997</v>
+        <v>0.4356618989620962</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>50272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37391</v>
+        <v>37474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65307</v>
+        <v>66495</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09193520605607845</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06837870374299268</v>
+        <v>0.06853120580923976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.119430409623801</v>
+        <v>0.1216043867831678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1483,19 +1483,19 @@
         <v>16301</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9543</v>
+        <v>9074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27728</v>
+        <v>24880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03498623789986797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02048192033995456</v>
+        <v>0.01947513794845365</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0595127744042448</v>
+        <v>0.05340100166105861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -1504,19 +1504,19 @@
         <v>66572</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51674</v>
+        <v>51921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84309</v>
+        <v>83452</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06573549571770256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05102480535200317</v>
+        <v>0.05126782623202301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08324916848528625</v>
+        <v>0.08240267851306624</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>107025</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>90066</v>
+        <v>89502</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>127381</v>
+        <v>126690</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1957233651749757</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1647089130460548</v>
+        <v>0.1636786339682636</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2329488642116375</v>
+        <v>0.2316850199512474</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>45</v>
@@ -1554,19 +1554,19 @@
         <v>45969</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33913</v>
+        <v>34130</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>58918</v>
+        <v>61234</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09866426578633493</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07278770209896618</v>
+        <v>0.07325323776242471</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1264577913346534</v>
+        <v>0.1314275363910792</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>151</v>
@@ -1575,19 +1575,19 @@
         <v>152994</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>130709</v>
+        <v>129422</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>175405</v>
+        <v>177434</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1510707512292617</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1290659988983856</v>
+        <v>0.1277953781757371</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1732003148920117</v>
+        <v>0.1752037821092189</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>242479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>218118</v>
+        <v>219665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266633</v>
+        <v>266672</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4434358186398784</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3988850787646548</v>
+        <v>0.4017148929623467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4876083767789474</v>
+        <v>0.487680191848107</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>211</v>
@@ -1625,19 +1625,19 @@
         <v>222475</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>200475</v>
+        <v>202137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>242168</v>
+        <v>244396</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4775023032333471</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4302846241926308</v>
+        <v>0.4338509326149093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5197718633110774</v>
+        <v>0.5245535372234049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>444</v>
@@ -1646,19 +1646,19 @@
         <v>464953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>431108</v>
+        <v>430695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>498005</v>
+        <v>494959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4591083067901012</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4256890200758816</v>
+        <v>0.4252810953198575</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4917446940850756</v>
+        <v>0.4887366067800709</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>147042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125036</v>
+        <v>127796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>170247</v>
+        <v>168623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2689056101290675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2286616770420086</v>
+        <v>0.2337090684483668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3113416911215235</v>
+        <v>0.3083717410873535</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>171</v>
@@ -1696,19 +1696,19 @@
         <v>181169</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160987</v>
+        <v>160540</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202046</v>
+        <v>203509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.38884719308045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3455302027706937</v>
+        <v>0.3445718176117716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4336555329123885</v>
+        <v>0.4367952592183969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -1717,19 +1717,19 @@
         <v>328211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299816</v>
+        <v>300024</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>361673</v>
+        <v>360068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3240854462629345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2960468858342532</v>
+        <v>0.2962524798157031</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3571261084206825</v>
+        <v>0.3555418263449986</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>148019</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>125401</v>
+        <v>125561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175122</v>
+        <v>174167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0458040269942334</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03880519038443635</v>
+        <v>0.03885456626172739</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05419121733221514</v>
+        <v>0.05389549182397937</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1842,19 +1842,19 @@
         <v>54994</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41902</v>
+        <v>41344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71932</v>
+        <v>71471</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01657051038481552</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01262585434737357</v>
+        <v>0.01245760616039316</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02167428791482326</v>
+        <v>0.02153546878188121</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -1863,19 +1863,19 @@
         <v>203012</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>174601</v>
+        <v>175982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233181</v>
+        <v>231414</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03099269433867079</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02665533493891675</v>
+        <v>0.02686617899420117</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03559843349420144</v>
+        <v>0.03532868940375589</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>398014</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>362281</v>
+        <v>363081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>438280</v>
+        <v>440540</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1231646325205541</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1121071515329711</v>
+        <v>0.1123546823524462</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.135624774346488</v>
+        <v>0.136324121306983</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -1913,19 +1913,19 @@
         <v>191642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>166278</v>
+        <v>166798</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218814</v>
+        <v>220069</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05774505592647525</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0501024687952623</v>
+        <v>0.05025910977778977</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06593246626621685</v>
+        <v>0.06631070159184532</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>582</v>
@@ -1934,19 +1934,19 @@
         <v>589656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>541866</v>
+        <v>545276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>633455</v>
+        <v>634830</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0900194203291203</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08272356212134514</v>
+        <v>0.08324422502583165</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09670587580109627</v>
+        <v>0.09691587546809632</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>1358403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1303137</v>
+        <v>1294998</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1415749</v>
+        <v>1416015</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4203547744292568</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4032527493478191</v>
+        <v>0.4007343894286267</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.438100312264926</v>
+        <v>0.4381828223654883</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1517</v>
@@ -1984,19 +1984,19 @@
         <v>1541061</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1483469</v>
+        <v>1478499</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1599342</v>
+        <v>1595844</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4643486017273343</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4469950438808322</v>
+        <v>0.4454975028155058</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4819096076904887</v>
+        <v>0.4808556279643336</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2862</v>
@@ -2005,19 +2005,19 @@
         <v>2899464</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2820564</v>
+        <v>2816429</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2981018</v>
+        <v>2975260</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4426445050699173</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4305992791327862</v>
+        <v>0.4299680116196401</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4550949220447632</v>
+        <v>0.4542158293176172</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>1327127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1473</v>
@@ -2055,19 +2055,19 @@
         <v>1531062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2764</v>
@@ -2076,19 +2076,19 @@
         <v>2858190</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>24196</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15737</v>
+        <v>14841</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37813</v>
+        <v>35661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02484817920224483</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01616145906336323</v>
+        <v>0.01524127158721552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0388328410464874</v>
+        <v>0.03662225208722639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2440,19 +2440,19 @@
         <v>11541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5411</v>
+        <v>5583</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19877</v>
+        <v>21069</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008633826951341886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004048365699503799</v>
+        <v>0.004176939368516879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01487048424771927</v>
+        <v>0.01576206031140575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2461,19 +2461,19 @@
         <v>35737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25209</v>
+        <v>24795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50833</v>
+        <v>51564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01546742927079378</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01091107625756673</v>
+        <v>0.0107318892005821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02200136823482485</v>
+        <v>0.02231764885712327</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>53137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41371</v>
+        <v>40091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70001</v>
+        <v>70407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05456930783204976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04248614437399795</v>
+        <v>0.04117178181459713</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07188818009125408</v>
+        <v>0.0723057862790753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -2511,19 +2511,19 @@
         <v>42574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31223</v>
+        <v>31394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58283</v>
+        <v>57038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03184993772177431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02335811542435119</v>
+        <v>0.02348615788980469</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04360238548412776</v>
+        <v>0.04267056655167798</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -2532,19 +2532,19 @@
         <v>95710</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76489</v>
+        <v>77294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115038</v>
+        <v>115102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04142510531895159</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03310588045710815</v>
+        <v>0.03345427974958559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04979059094245583</v>
+        <v>0.04981811168064695</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>644695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>613893</v>
+        <v>613735</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>672073</v>
+        <v>673805</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6620773635031383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6304450200065429</v>
+        <v>0.6302823316453192</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6901938484493266</v>
+        <v>0.6919721224601223</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>742</v>
@@ -2582,19 +2582,19 @@
         <v>797537</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>763821</v>
+        <v>760882</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>835465</v>
+        <v>833155</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5966464277911525</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5714234026771858</v>
+        <v>0.569224616402399</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6250211139411752</v>
+        <v>0.6232927298450672</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1338</v>
@@ -2603,19 +2603,19 @@
         <v>1442232</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1395861</v>
+        <v>1394745</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1491451</v>
+        <v>1490094</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6242225521485368</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6041524305647371</v>
+        <v>0.6036696192228966</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6455253949039749</v>
+        <v>0.6449381722189798</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>251718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>227103</v>
+        <v>224480</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279070</v>
+        <v>282123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2585051494625671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2332262154506231</v>
+        <v>0.2305321968699788</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2865940897129098</v>
+        <v>0.289729952051917</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>454</v>
@@ -2653,19 +2653,19 @@
         <v>485048</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>449873</v>
+        <v>449803</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>519206</v>
+        <v>519576</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3628698075357313</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3365553414542015</v>
+        <v>0.3365026840765943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3884237616353401</v>
+        <v>0.3887005527443487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>691</v>
@@ -2674,19 +2674,19 @@
         <v>736766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>696510</v>
+        <v>691798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>786375</v>
+        <v>781445</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3188849132617178</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3014614580269305</v>
+        <v>0.2994218297235106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3403566214169654</v>
+        <v>0.338222670689705</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>206660</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>178923</v>
+        <v>180139</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>235928</v>
+        <v>234698</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.105272617498165</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09114335927725793</v>
+        <v>0.09176277019705568</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.120181625382738</v>
+        <v>0.1195551452170617</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -2799,19 +2799,19 @@
         <v>35535</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24377</v>
+        <v>24245</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49579</v>
+        <v>49110</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02021584137531614</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01386772799567289</v>
+        <v>0.01379290388780897</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02820507200063459</v>
+        <v>0.02793819637482344</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>237</v>
@@ -2820,19 +2820,19 @@
         <v>242196</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>215792</v>
+        <v>212349</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>277211</v>
+        <v>275757</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06509065503965218</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05799462580929865</v>
+        <v>0.0570694008946001</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07450118022964294</v>
+        <v>0.074110223023215</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>403673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>370637</v>
+        <v>369741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444502</v>
+        <v>444001</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2056310299579156</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1888020604920188</v>
+        <v>0.1883458456618471</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.226429213346366</v>
+        <v>0.2261739010211855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -2870,19 +2870,19 @@
         <v>129313</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108307</v>
+        <v>108192</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>152337</v>
+        <v>152814</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07356522972473714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06161500335543565</v>
+        <v>0.06154942041481793</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0866632745784582</v>
+        <v>0.08693451781276677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>509</v>
@@ -2891,19 +2891,19 @@
         <v>532987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>492307</v>
+        <v>490141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>577242</v>
+        <v>577460</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1432413736728181</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1323084924038156</v>
+        <v>0.131726409771815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1551350425589842</v>
+        <v>0.1551937727422266</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>902828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>855385</v>
+        <v>859231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>945288</v>
+        <v>945894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4598998532406331</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4357326124833459</v>
+        <v>0.4376920082314307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4815292417213156</v>
+        <v>0.4818378835950142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>987</v>
@@ -2941,19 +2941,19 @@
         <v>1062091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1016078</v>
+        <v>1017257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1102740</v>
+        <v>1102395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6042148816907601</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5780385081097433</v>
+        <v>0.5787094652083706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6273401936692495</v>
+        <v>0.627143822641351</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1836</v>
@@ -2962,19 +2962,19 @@
         <v>1964918</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1902861</v>
+        <v>1900606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2020495</v>
+        <v>2025513</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5280762093137439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.511398302255767</v>
+        <v>0.5107920434162784</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.543012631540438</v>
+        <v>0.54436107293257</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>449935</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>410051</v>
+        <v>412283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>492983</v>
+        <v>488433</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2291964993032863</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2088799332665487</v>
+        <v>0.2100168805044835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2511252390918359</v>
+        <v>0.2488074885785796</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>491</v>
@@ -3012,19 +3012,19 @@
         <v>530864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>490889</v>
+        <v>492911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>576790</v>
+        <v>572124</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3020040472091867</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2792626628999058</v>
+        <v>0.2804129739384763</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.328131165948279</v>
+        <v>0.3254769891261961</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>908</v>
@@ -3033,19 +3033,19 @@
         <v>980798</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>928774</v>
+        <v>926597</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1034538</v>
+        <v>1034249</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2635917619737859</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2496100910430058</v>
+        <v>0.2490250602509802</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2780345182219237</v>
+        <v>0.2779568023156464</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>55501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43409</v>
+        <v>42365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70333</v>
+        <v>70434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1153440063149542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09021331055178423</v>
+        <v>0.08804398198861205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1461671797701997</v>
+        <v>0.1463781213850179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3158,19 +3158,19 @@
         <v>23115</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15009</v>
+        <v>14640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35043</v>
+        <v>36769</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05039924908433487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0327261574642866</v>
+        <v>0.03192189096297864</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07640825421585137</v>
+        <v>0.08017122504595266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -3179,19 +3179,19 @@
         <v>78616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63521</v>
+        <v>62806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>99250</v>
+        <v>97451</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08365078682396589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06758877442529178</v>
+        <v>0.06682786745064238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1056058221213609</v>
+        <v>0.1036921117370928</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>141483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>119616</v>
+        <v>118041</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>162641</v>
+        <v>163400</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2940326655152771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2485890447267102</v>
+        <v>0.2453147833144684</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3380036221682124</v>
+        <v>0.3395808677302393</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -3229,19 +3229,19 @@
         <v>60713</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>46267</v>
+        <v>45658</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>78827</v>
+        <v>77448</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1323787905127342</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1008810416459357</v>
+        <v>0.09955297378639358</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1718754924686945</v>
+        <v>0.168867025365778</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>176</v>
@@ -3250,19 +3250,19 @@
         <v>202196</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>177919</v>
+        <v>175859</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>230154</v>
+        <v>230237</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2151451315480411</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1893133527231144</v>
+        <v>0.1871207383372678</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2448938313798244</v>
+        <v>0.2449818080015061</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>218486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195106</v>
+        <v>194891</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>243711</v>
+        <v>242775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.45406163573485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4054722143828152</v>
+        <v>0.4050268756937515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5064853995753071</v>
+        <v>0.5045408178953859</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>261</v>
@@ -3300,19 +3300,19 @@
         <v>291939</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>268240</v>
+        <v>270929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>312487</v>
+        <v>312872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6365446894352947</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5848715856648095</v>
+        <v>0.5907336463665231</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6813475396585679</v>
+        <v>0.6821861340815714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>460</v>
@@ -3321,19 +3321,19 @@
         <v>510425</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>478032</v>
+        <v>476804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541884</v>
+        <v>540916</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5431138659830413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5086456044093417</v>
+        <v>0.5073386951226999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5765875535430451</v>
+        <v>0.5755567536034971</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>65711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50840</v>
+        <v>51360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83602</v>
+        <v>82608</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1365616924349187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1056560256244193</v>
+        <v>0.1067375867078029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1737438848078737</v>
+        <v>0.1716783129784091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -3371,19 +3371,19 @@
         <v>82864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68883</v>
+        <v>66758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101345</v>
+        <v>101041</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1806772709676361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1501933051404479</v>
+        <v>0.145560178615869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2209730207212383</v>
+        <v>0.2203089203467544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -3392,19 +3392,19 @@
         <v>148575</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126315</v>
+        <v>128111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>173323</v>
+        <v>174345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1580902156449517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1344046613327588</v>
+        <v>0.1363152252623297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1844232048577447</v>
+        <v>0.1855098801936249</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>286358</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>256190</v>
+        <v>254307</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>319584</v>
+        <v>319278</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08377867384998113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07495275473095651</v>
+        <v>0.07440189360116958</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09349950664828632</v>
+        <v>0.09341008715608023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -3517,19 +3517,19 @@
         <v>70191</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54705</v>
+        <v>55430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90686</v>
+        <v>90937</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01975466638772266</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01539625147573101</v>
+        <v>0.01560034186623297</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02552281045633097</v>
+        <v>0.02559343952024119</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3538,19 +3538,19 @@
         <v>356548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>321603</v>
+        <v>321790</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>393042</v>
+        <v>395984</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05114624237682689</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0461333589550823</v>
+        <v>0.04616024736133208</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05638121609779841</v>
+        <v>0.05680317697182283</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>598293</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>549043</v>
+        <v>549680</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>645463</v>
+        <v>642819</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1750406856500054</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1606318227056007</v>
+        <v>0.1608179842155084</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1888410314810345</v>
+        <v>0.188067458681414</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>215</v>
@@ -3588,19 +3588,19 @@
         <v>232600</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205909</v>
+        <v>202569</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266381</v>
+        <v>264507</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06546334960488008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0579515169168119</v>
+        <v>0.05701126046599193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07497082123298804</v>
+        <v>0.07444342180780883</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>777</v>
@@ -3609,19 +3609,19 @@
         <v>830893</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>774507</v>
+        <v>775996</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>888990</v>
+        <v>884088</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1191901531507514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1111016324102405</v>
+        <v>0.1113152160902515</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1275241113510104</v>
+        <v>0.1268209153814987</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>1766009</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1703505</v>
+        <v>1704328</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1824172</v>
+        <v>1826941</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5166754388124738</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4983887898180971</v>
+        <v>0.4986295197238079</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.533692055596709</v>
+        <v>0.5345022384187361</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1990</v>
@@ -3659,19 +3659,19 @@
         <v>2151566</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2085648</v>
+        <v>2089792</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2214150</v>
+        <v>2212321</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6055406727867758</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5869886704642202</v>
+        <v>0.5881547720234908</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6231545835147481</v>
+        <v>0.6226395629412164</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3634</v>
@@ -3680,19 +3680,19 @@
         <v>3917575</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3832451</v>
+        <v>3835735</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4002924</v>
+        <v>3998063</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5619692086490727</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5497583082810006</v>
+        <v>0.55022933268982</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5742123106356126</v>
+        <v>0.573515034562553</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>767364</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>720374</v>
+        <v>716786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>823781</v>
+        <v>816645</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2245052016875397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2107575393828067</v>
+        <v>0.2097077339530005</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2410108942745723</v>
+        <v>0.2389231671434625</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1024</v>
@@ -3730,19 +3730,19 @@
         <v>1098775</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1040234</v>
+        <v>1041668</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1158523</v>
+        <v>1160899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3092413112206214</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2927654184271855</v>
+        <v>0.2931690422434428</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3260568735205932</v>
+        <v>0.326725528949828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1738</v>
@@ -3751,19 +3751,19 @@
         <v>1866139</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1793425</v>
+        <v>1792953</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1945530</v>
+        <v>1935812</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2676943958233489</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2572635802708347</v>
+        <v>0.2571959534149634</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2790828275307976</v>
+        <v>0.2776887415577916</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>17541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10308</v>
+        <v>9961</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28354</v>
+        <v>26240</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02325259382134266</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01366535767581645</v>
+        <v>0.01320490487639617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03758748864491178</v>
+        <v>0.03478515053519151</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4115,19 +4115,19 @@
         <v>4816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10707</v>
+        <v>10788</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004841656532522141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001870276738782774</v>
+        <v>0.001870958541597209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01076495741083853</v>
+        <v>0.01084614976870185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -4136,19 +4136,19 @@
         <v>22356</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13952</v>
+        <v>13968</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33022</v>
+        <v>34036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01278229462756469</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007977031917746472</v>
+        <v>0.007986043932261362</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0188805026441002</v>
+        <v>0.01946008179678005</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>56599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43505</v>
+        <v>44329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72752</v>
+        <v>75064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07503108475648874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0576723194692325</v>
+        <v>0.05876456051116743</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09644381095953818</v>
+        <v>0.09950800924367588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -4186,19 +4186,19 @@
         <v>34719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24231</v>
+        <v>23435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49642</v>
+        <v>48977</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03490526521437613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02436106775260397</v>
+        <v>0.02356118723141187</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04990875916089622</v>
+        <v>0.04924016522396287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -4207,19 +4207,19 @@
         <v>91318</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73526</v>
+        <v>74127</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111873</v>
+        <v>112744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05221153301880656</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04203887375096339</v>
+        <v>0.04238233529145541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06396380034243002</v>
+        <v>0.06446196302612117</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>325429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>298434</v>
+        <v>299029</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>353224</v>
+        <v>353415</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4314052566358014</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3956193648826997</v>
+        <v>0.3964078170021444</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4682516649150384</v>
+        <v>0.4685041803053144</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>364</v>
@@ -4257,19 +4257,19 @@
         <v>394269</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>363347</v>
+        <v>363815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>424634</v>
+        <v>428328</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3963852391335437</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3652979062001182</v>
+        <v>0.365767762107986</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4269134080361231</v>
+        <v>0.4306274225430011</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>696</v>
@@ -4278,19 +4278,19 @@
         <v>719698</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>677125</v>
+        <v>672498</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>760271</v>
+        <v>758330</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4114893742845738</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3871482159824854</v>
+        <v>0.3845024735246805</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4346870306005116</v>
+        <v>0.4335776788772905</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>354778</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>327590</v>
+        <v>325498</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>382610</v>
+        <v>379979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4703110647863672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4342697941895486</v>
+        <v>0.4314965680006093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5072071042362788</v>
+        <v>0.5037195094953357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>491</v>
@@ -4328,19 +4328,19 @@
         <v>560857</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>528244</v>
+        <v>526212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>591831</v>
+        <v>592851</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5638678391195581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5310797016072283</v>
+        <v>0.5290374893650061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5950082506591201</v>
+        <v>0.5960339733328189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>850</v>
@@ -4349,19 +4349,19 @@
         <v>915635</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>872877</v>
+        <v>873152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>960242</v>
+        <v>956844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.523516798069055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4990701724089714</v>
+        <v>0.4992275236302864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5490212738675962</v>
+        <v>0.547078426202967</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>164361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>141549</v>
+        <v>142338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>194586</v>
+        <v>191410</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07915712774378414</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06817100006483748</v>
+        <v>0.06855075720143965</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09371363905423437</v>
+        <v>0.09218431862346535</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -4474,19 +4474,19 @@
         <v>48866</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>36588</v>
+        <v>35834</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63937</v>
+        <v>62962</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02457697529728617</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01840164632750814</v>
+        <v>0.01802236436401378</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03215685535865489</v>
+        <v>0.03166630362825866</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>205</v>
@@ -4495,19 +4495,19 @@
         <v>213227</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>185806</v>
+        <v>186664</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>246189</v>
+        <v>245182</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05245844879634233</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04571236787216713</v>
+        <v>0.04592343594168574</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06056782101872974</v>
+        <v>0.06031999703549787</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>382971</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>346441</v>
+        <v>345050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>417612</v>
+        <v>418707</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1844410057321492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1668479810964181</v>
+        <v>0.1661780789475101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2011245647658563</v>
+        <v>0.2016521432780285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -4545,19 +4545,19 @@
         <v>210548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182144</v>
+        <v>182186</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239774</v>
+        <v>238577</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1058932652389259</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09160785537571987</v>
+        <v>0.09162913554399746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1205923052027288</v>
+        <v>0.1199906836732994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>569</v>
@@ -4566,19 +4566,19 @@
         <v>593518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>542541</v>
+        <v>550247</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>638012</v>
+        <v>639290</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1460182309417849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1334767813432645</v>
+        <v>0.1353725848927205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1569646427931809</v>
+        <v>0.1572790513548458</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>864776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>823799</v>
+        <v>817816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>911965</v>
+        <v>911528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4164817672900497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3967465689581656</v>
+        <v>0.393865444812407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4392079325156401</v>
+        <v>0.4389975689397481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>901</v>
@@ -4616,19 +4616,19 @@
         <v>936294</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>896236</v>
+        <v>893949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>986750</v>
+        <v>982962</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4709017731203356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4507547157419205</v>
+        <v>0.4496044428864739</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4962781447388448</v>
+        <v>0.4943729914917065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1716</v>
@@ -4637,19 +4637,19 @@
         <v>1801070</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1739262</v>
+        <v>1727829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1864118</v>
+        <v>1864232</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4431021081805402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.427895980105744</v>
+        <v>0.4250831866913884</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4586130844699035</v>
+        <v>0.4586411472328347</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>664277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>618895</v>
+        <v>620960</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>710503</v>
+        <v>710296</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3199200992340169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.298063830484502</v>
+        <v>0.2990581083854096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3421826374122965</v>
+        <v>0.342083183491235</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>752</v>
@@ -4687,19 +4687,19 @@
         <v>792592</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>746887</v>
+        <v>749796</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>834866</v>
+        <v>840982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3986279863434523</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3756407869130405</v>
+        <v>0.3771038478473996</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4198894462442072</v>
+        <v>0.4229655736095689</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1370</v>
@@ -4708,19 +4708,19 @@
         <v>1456869</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1392915</v>
+        <v>1394602</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1517157</v>
+        <v>1522187</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3584212120813325</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3426870610630112</v>
+        <v>0.3431021053167248</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3732532658946722</v>
+        <v>0.3744907345456298</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>59709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45166</v>
+        <v>44805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75273</v>
+        <v>75488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1091791107689774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08258766016173247</v>
+        <v>0.08192670141847404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1376394572344809</v>
+        <v>0.1380322682192525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -4833,19 +4833,19 @@
         <v>21188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14064</v>
+        <v>12765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32754</v>
+        <v>31517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03858336459291591</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02561058195535489</v>
+        <v>0.02324491999004696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05964632579284089</v>
+        <v>0.05739329223057662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -4854,19 +4854,19 @@
         <v>80896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64015</v>
+        <v>63283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>100236</v>
+        <v>99944</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07380864230502256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05840651400878213</v>
+        <v>0.05773847113529459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09145422871958028</v>
+        <v>0.09118787290516148</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>144587</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>124523</v>
+        <v>123795</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>166958</v>
+        <v>168101</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2643831718343821</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2276948496785666</v>
+        <v>0.2263629249320404</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3052881394955714</v>
+        <v>0.3073781162164433</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>92</v>
@@ -4904,19 +4904,19 @@
         <v>95956</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79549</v>
+        <v>78463</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>116212</v>
+        <v>115891</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1747387213152131</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1448616870558335</v>
+        <v>0.1428827015868359</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2116248430689116</v>
+        <v>0.2110404428201584</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>225</v>
@@ -4925,19 +4925,19 @@
         <v>240544</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>213475</v>
+        <v>212652</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>269547</v>
+        <v>271468</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2194687629385667</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1947720291689928</v>
+        <v>0.1940211122078652</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2459309388808109</v>
+        <v>0.2476834252440495</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>217066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191793</v>
+        <v>192801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>240436</v>
+        <v>240790</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3969130341796648</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.350699727995444</v>
+        <v>0.3525429666991262</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4396456662076488</v>
+        <v>0.4402927432689013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -4975,19 +4975,19 @@
         <v>276110</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>251633</v>
+        <v>252487</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>298924</v>
+        <v>298123</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5028048856042234</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4582315620969811</v>
+        <v>0.4597859598176472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5443493486811467</v>
+        <v>0.5428911867800638</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>459</v>
@@ -4996,19 +4996,19 @@
         <v>493177</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>460568</v>
+        <v>458071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>526888</v>
+        <v>527635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4499678511379165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4202162914441856</v>
+        <v>0.4179379323420777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4807253962070228</v>
+        <v>0.4814066305065684</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>125524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107936</v>
+        <v>105259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>148837</v>
+        <v>146232</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2295246832169757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1973638017224222</v>
+        <v>0.1924699149067486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2721539283424761</v>
+        <v>0.2673901432210196</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -5046,19 +5046,19 @@
         <v>155886</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134263</v>
+        <v>134052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177499</v>
+        <v>177987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2838730284876476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2444960110876612</v>
+        <v>0.2441120732899494</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3232312216390246</v>
+        <v>0.3241189657809521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>268</v>
@@ -5067,19 +5067,19 @@
         <v>281410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>252239</v>
+        <v>251144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>312281</v>
+        <v>311299</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2567547436184943</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2301397759139888</v>
+        <v>0.2291402220580124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2849211016813513</v>
+        <v>0.2840252290841046</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>241610</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210362</v>
+        <v>214709</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>274144</v>
+        <v>276106</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07153258380300467</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06228122317582779</v>
+        <v>0.06356823822756844</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08116500545036677</v>
+        <v>0.08174576751916469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -5192,19 +5192,19 @@
         <v>74870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60038</v>
+        <v>57580</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91695</v>
+        <v>92380</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02119698606345866</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01699769904341029</v>
+        <v>0.01630187076922244</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02596040133397292</v>
+        <v>0.02615431818848169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -5213,19 +5213,19 @@
         <v>316480</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279780</v>
+        <v>284608</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>348739</v>
+        <v>350447</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04580210092178731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04049081616608518</v>
+        <v>0.04118945822927939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05047081853465555</v>
+        <v>0.05071799135166735</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>584158</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>542450</v>
+        <v>540625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>631211</v>
+        <v>630985</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1729495484712256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1606014728679298</v>
+        <v>0.160061158486636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1868806039622201</v>
+        <v>0.1868134997566592</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>329</v>
@@ -5263,19 +5263,19 @@
         <v>341222</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>305824</v>
+        <v>303613</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>379127</v>
+        <v>377952</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09660612385840034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08658432482426982</v>
+        <v>0.08595831569589768</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1073374989291556</v>
+        <v>0.1070049762279637</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>880</v>
@@ -5284,19 +5284,19 @@
         <v>925380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>869614</v>
+        <v>869927</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>982343</v>
+        <v>981592</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1339244197689092</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1258537453423089</v>
+        <v>0.1258990094840425</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1421683368994357</v>
+        <v>0.1420596230008889</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>1407272</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1351790</v>
+        <v>1346348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1466666</v>
+        <v>1460292</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4166462664799538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4002199495955537</v>
+        <v>0.3986087706582654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4342308271958572</v>
+        <v>0.4323437435140583</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1531</v>
@@ -5334,19 +5334,19 @@
         <v>1606673</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1547642</v>
+        <v>1554726</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1665736</v>
+        <v>1664343</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4548775005356485</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4381649522651551</v>
+        <v>0.4401704406873668</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4715992608046861</v>
+        <v>0.4712048678845355</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2871</v>
@@ -5355,19 +5355,19 @@
         <v>3013945</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2922874</v>
+        <v>2925217</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3092158</v>
+        <v>3096201</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4361892570785341</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4230090949444164</v>
+        <v>0.4233482231283988</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4475086352658639</v>
+        <v>0.448093702824184</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>1144579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1094121</v>
+        <v>1091400</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1202556</v>
+        <v>1198989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3388716012458159</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3239326413195841</v>
+        <v>0.3231271676095039</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3560365944012291</v>
+        <v>0.3549805563945802</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1391</v>
@@ -5405,19 +5405,19 @@
         <v>1509335</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1451383</v>
+        <v>1451437</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1568781</v>
+        <v>1569060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4273193895424925</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4109121292001675</v>
+        <v>0.4109273631733855</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4441496806272827</v>
+        <v>0.4442286849814515</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2488</v>
@@ -5426,19 +5426,19 @@
         <v>2653914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2569065</v>
+        <v>2574460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2734251</v>
+        <v>2738730</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3840842222307694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3718045392800504</v>
+        <v>0.3725854348636174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3957109547537009</v>
+        <v>0.3963591661064415</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>16709</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10094</v>
+        <v>10340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25728</v>
+        <v>26248</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02908348215567451</v>
+        <v>0.0290834821556745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01757036054676599</v>
+        <v>0.0179984707989731</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04478317203682608</v>
+        <v>0.04568775476783227</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -5790,19 +5790,19 @@
         <v>20512</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14528</v>
+        <v>14419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28075</v>
+        <v>28273</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02511845007764082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01779051188444368</v>
+        <v>0.01765782176894486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03438066369258649</v>
+        <v>0.03462273849712449</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -5811,19 +5811,19 @@
         <v>37220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28140</v>
+        <v>28724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48596</v>
+        <v>49555</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02675595005847265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02022895719752298</v>
+        <v>0.02064864009734969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03493334104780283</v>
+        <v>0.03562316969020581</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>26727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15991</v>
+        <v>16035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42859</v>
+        <v>42047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04652186304208413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02783518747857993</v>
+        <v>0.02791041223968193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07460106486942505</v>
+        <v>0.07318821053821441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5861,19 +5861,19 @@
         <v>13884</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9163</v>
+        <v>9275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20103</v>
+        <v>20015</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01700276674366759</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01122055412418181</v>
+        <v>0.01135833249061682</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02461801454704276</v>
+        <v>0.0245100169675663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -5882,19 +5882,19 @@
         <v>40611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30015</v>
+        <v>29115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62559</v>
+        <v>59501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02919371972248974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02157658239075812</v>
+        <v>0.02092947978651414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04497107077595817</v>
+        <v>0.04277293721610816</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>234012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>213137</v>
+        <v>212565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>257300</v>
+        <v>256957</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4073289435449458</v>
+        <v>0.4073289435449459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3709941755457</v>
+        <v>0.3699984474907599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4478652916663644</v>
+        <v>0.4472690597540793</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>522</v>
@@ -5932,19 +5932,19 @@
         <v>288361</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>267845</v>
+        <v>267448</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>308466</v>
+        <v>309182</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3531257064793218</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3280023985797565</v>
+        <v>0.3275155023776545</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3777458762757448</v>
+        <v>0.3786228552085797</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>828</v>
@@ -5953,19 +5953,19 @@
         <v>522373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>492637</v>
+        <v>494230</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>552686</v>
+        <v>555354</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3755108468537722</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.354135446895215</v>
+        <v>0.3552803211366393</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.397301717637364</v>
+        <v>0.3992193680148164</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>297056</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>273037</v>
+        <v>273075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>318905</v>
+        <v>320815</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5170657112572955</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4752570859709598</v>
+        <v>0.475324154804154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5550965170170793</v>
+        <v>0.5584210440389916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>840</v>
@@ -6003,19 +6003,19 @@
         <v>493839</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>471917</v>
+        <v>471905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>514857</v>
+        <v>517013</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6047530766993697</v>
+        <v>0.6047530766993698</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.577906977079651</v>
+        <v>0.5778929951548319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.630491179744316</v>
+        <v>0.6331323806442533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1180</v>
@@ -6024,19 +6024,19 @@
         <v>790895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>761423</v>
+        <v>757660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>822822</v>
+        <v>821733</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5685394833652655</v>
+        <v>0.5685394833652654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5473535112532004</v>
+        <v>0.544648340515545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5914906522484444</v>
+        <v>0.5907078194231705</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>279733</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>244512</v>
+        <v>239757</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>323959</v>
+        <v>320432</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1256803777814809</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1098556997477837</v>
+        <v>0.1077197136569329</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.145550443447979</v>
+        <v>0.1439654808264825</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>177</v>
@@ -6149,19 +6149,19 @@
         <v>147846</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>127718</v>
+        <v>127411</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>172918</v>
+        <v>171191</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06818217513708463</v>
+        <v>0.06818217513708462</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05889986214018994</v>
+        <v>0.05875830047427281</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07974450536799498</v>
+        <v>0.07894820205623572</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>380</v>
@@ -6170,19 +6170,19 @@
         <v>427579</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>382009</v>
+        <v>387951</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>476156</v>
+        <v>474392</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09730655529920045</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08693588212511483</v>
+        <v>0.08828810276596764</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1083614672833815</v>
+        <v>0.1079599294568335</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>304992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>267679</v>
+        <v>266431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>351595</v>
+        <v>345774</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1370288554118958</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1202644864969367</v>
+        <v>0.1197039431655643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1579669150408676</v>
+        <v>0.1553513039706851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -6220,19 +6220,19 @@
         <v>129837</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109629</v>
+        <v>110460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>154573</v>
+        <v>155818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05987720689792463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0505578204579823</v>
+        <v>0.05094087915788492</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07128435690757953</v>
+        <v>0.0718587279948706</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -6241,19 +6241,19 @@
         <v>434830</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>389075</v>
+        <v>390660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>486799</v>
+        <v>486739</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09895658395865826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08854390713961631</v>
+        <v>0.08890468777562849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1107834021080542</v>
+        <v>0.110769891971525</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>933168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>880911</v>
+        <v>879473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>985907</v>
+        <v>988353</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4192595168649327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3957810635423661</v>
+        <v>0.3951349082141636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.442954170791573</v>
+        <v>0.4440532324635521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1528</v>
@@ -6291,19 +6291,19 @@
         <v>1075408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1030772</v>
+        <v>1036076</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1123445</v>
+        <v>1122345</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.495946719886929</v>
+        <v>0.4959467198869288</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.475361722190518</v>
+        <v>0.4778080528922911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5180999801831775</v>
+        <v>0.5175925702977522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2435</v>
@@ -6312,19 +6312,19 @@
         <v>2008576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1935800</v>
+        <v>1938754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2074355</v>
+        <v>2076750</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4571025969115537</v>
+        <v>0.4571025969115536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4405404751538782</v>
+        <v>0.4412127358994768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4720722800047112</v>
+        <v>0.4726173215166076</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>707859</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>657669</v>
+        <v>653211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>759513</v>
+        <v>757145</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3180312499416906</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2954816365692525</v>
+        <v>0.2934788408742577</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3412385931682498</v>
+        <v>0.3401746916437612</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1061</v>
@@ -6362,19 +6362,19 @@
         <v>815303</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>769962</v>
+        <v>773645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>861872</v>
+        <v>856244</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3759938980780619</v>
+        <v>0.3759938980780618</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3550837997788532</v>
+        <v>0.3567823203687931</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3974702568178475</v>
+        <v>0.3948748752600947</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1719</v>
@@ -6383,19 +6383,19 @@
         <v>1523162</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1460326</v>
+        <v>1459527</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1591475</v>
+        <v>1588210</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3466342638305877</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3323344631634901</v>
+        <v>0.332152571778228</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3621806633780122</v>
+        <v>0.3614376536041095</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>131473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108622</v>
+        <v>109456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>155998</v>
+        <v>155621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1850537249095278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1528901337520331</v>
+        <v>0.154063302098903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2195733498346421</v>
+        <v>0.2190427342067273</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -6508,19 +6508,19 @@
         <v>92377</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76052</v>
+        <v>77501</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108993</v>
+        <v>111427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1257700847308545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1035443736537799</v>
+        <v>0.1055174455954843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1483924396194652</v>
+        <v>0.1517063721754863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -6529,19 +6529,19 @@
         <v>223850</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197841</v>
+        <v>196128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>254951</v>
+        <v>256041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1549189244439776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1369193229603133</v>
+        <v>0.1357334808943893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1764430515767254</v>
+        <v>0.1771970514495239</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>114194</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93487</v>
+        <v>94257</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>138510</v>
+        <v>138649</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1607324682694354</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1315873084461676</v>
+        <v>0.1326701008163158</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1949581291487358</v>
+        <v>0.1951539122679604</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>104</v>
@@ -6579,19 +6579,19 @@
         <v>89895</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>73955</v>
+        <v>73274</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>109014</v>
+        <v>107583</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1223912775460687</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1006885218440976</v>
+        <v>0.099761337848789</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1484210967920748</v>
+        <v>0.1464731624244487</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>200</v>
@@ -6600,19 +6600,19 @@
         <v>204089</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>177023</v>
+        <v>179280</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>234721</v>
+        <v>239314</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1412430420368691</v>
+        <v>0.141243042036869</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1225118016351055</v>
+        <v>0.124073951270811</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1624422698948635</v>
+        <v>0.1656209760615875</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>298129</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>270370</v>
+        <v>270346</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>322994</v>
+        <v>326262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4196292118207244</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3805578693900443</v>
+        <v>0.3805231435483419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4546274452997588</v>
+        <v>0.4592276413954074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>520</v>
@@ -6650,19 +6650,19 @@
         <v>355821</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>331772</v>
+        <v>328996</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>382870</v>
+        <v>379440</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4844475867758998</v>
+        <v>0.4844475867758997</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4517042089198645</v>
+        <v>0.4479255920594418</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5212740681518765</v>
+        <v>0.5166034553004697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>838</v>
@@ -6671,19 +6671,19 @@
         <v>653951</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>616740</v>
+        <v>615499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>691650</v>
+        <v>692121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.452577404439944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.426824992966195</v>
+        <v>0.4259662955913314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4786678341601108</v>
+        <v>0.4789940416371527</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>166663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143327</v>
+        <v>143203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193397</v>
+        <v>193082</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2345845950003123</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2017390293216603</v>
+        <v>0.2015641900656903</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2722148003534065</v>
+        <v>0.2717711343498275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>261</v>
@@ -6721,19 +6721,19 @@
         <v>196396</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174471</v>
+        <v>174253</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219588</v>
+        <v>218093</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.267391050947177</v>
+        <v>0.2673910509471769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2375407844116743</v>
+        <v>0.2372434990288906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2989670888966275</v>
+        <v>0.2969313531583396</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>417</v>
@@ -6742,19 +6742,19 @@
         <v>363059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327284</v>
+        <v>333393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>393684</v>
+        <v>397901</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2512606290792095</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2265024688472386</v>
+        <v>0.2307297572105859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2724552971300124</v>
+        <v>0.2753738418746994</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>427915</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>385277</v>
+        <v>376923</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>474185</v>
+        <v>474854</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1218882807416227</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1097432065849408</v>
+        <v>0.1073637175383438</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1350679959727728</v>
+        <v>0.1352585928871928</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>329</v>
@@ -6867,19 +6867,19 @@
         <v>260734</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>233531</v>
+        <v>232220</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>290997</v>
+        <v>291613</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07009966558732252</v>
+        <v>0.0700996655873225</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06278581609654039</v>
+        <v>0.06243344648212016</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07823592249315488</v>
+        <v>0.07840169500854151</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>660</v>
@@ -6888,19 +6888,19 @@
         <v>688649</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>639496</v>
+        <v>637007</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>746061</v>
+        <v>746439</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09524630299200051</v>
+        <v>0.0952463029920005</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08844792022128843</v>
+        <v>0.08810373099982972</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1031868895202546</v>
+        <v>0.1032391419079475</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>445913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>401744</v>
+        <v>396456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>499074</v>
+        <v>495997</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1270148959190833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1144336986823758</v>
+        <v>0.1129274752721675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.142157377034595</v>
+        <v>0.1412809736826512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -6938,19 +6938,19 @@
         <v>233617</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>203363</v>
+        <v>205403</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263068</v>
+        <v>267950</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06280902834860429</v>
+        <v>0.0628090283486043</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05467503993525875</v>
+        <v>0.05522361129022547</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07072724404204943</v>
+        <v>0.0720395257168558</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>618</v>
@@ -6959,19 +6959,19 @@
         <v>679530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>621636</v>
+        <v>614063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>732304</v>
+        <v>738298</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09398502458324282</v>
+        <v>0.09398502458324286</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08597771561057212</v>
+        <v>0.084930331258734</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.101284094424357</v>
+        <v>0.1021131649830384</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>1465309</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1408198</v>
+        <v>1399883</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1533884</v>
+        <v>1530141</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4173819781207893</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4011143195802239</v>
+        <v>0.3987458690178885</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4369148577800354</v>
+        <v>0.435848854667407</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2570</v>
@@ -7009,19 +7009,19 @@
         <v>1719590</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1669166</v>
+        <v>1666394</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1776199</v>
+        <v>1774452</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4623202336174752</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4487633014341355</v>
+        <v>0.4480181038355613</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4775397216302533</v>
+        <v>0.4770700563026863</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4101</v>
@@ -7030,19 +7030,19 @@
         <v>3184900</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3100630</v>
+        <v>3101621</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3270267</v>
+        <v>3265766</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4404998776723113</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4288446248343191</v>
+        <v>0.4289817502678668</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4523069554049952</v>
+        <v>0.4516844261812029</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>1171578</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1104470</v>
+        <v>1110799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1226157</v>
+        <v>1234935</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3337148452185047</v>
+        <v>0.3337148452185048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3145998542680704</v>
+        <v>0.3164025162914629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3492612447259939</v>
+        <v>0.351761723228207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2162</v>
@@ -7080,19 +7080,19 @@
         <v>1505538</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1449000</v>
+        <v>1454255</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1558161</v>
+        <v>1564801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.404771072446598</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3895707890447839</v>
+        <v>0.3909836493573512</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4189192077183677</v>
+        <v>0.4207044566133554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3316</v>
@@ -7101,19 +7101,19 @@
         <v>2677115</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2594528</v>
+        <v>2602947</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2757706</v>
+        <v>2754670</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3702687947524453</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3588462022489254</v>
+        <v>0.360010632080605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.381415245719814</v>
+        <v>0.3809953036306006</v>
       </c>
     </row>
     <row r="23">
